--- a/ExcelFiles/MonsterInfo.xlsx
+++ b/ExcelFiles/MonsterInfo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>int</t>
   </si>
@@ -70,19 +70,31 @@
     <t>aiComponent</t>
   </si>
   <si>
+    <t>rewardDrop</t>
+  </si>
+  <si>
+    <t>colliderBoxOnStand</t>
+  </si>
+  <si>
+    <t>colliderBoxOnLie</t>
+  </si>
+  <si>
+    <t>effectsData</t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
-    <t>修理机工</t>
+    <t>修理机工（极限型）</t>
   </si>
   <si>
     <t>xiulijigong</t>
   </si>
   <si>
-    <t>trashFish</t>
-  </si>
-  <si>
-    <t>9999000</t>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>99999000</t>
   </si>
   <si>
     <t>100</t>
@@ -99,26 +111,106 @@
         "intervalTime":1,
         "stepByStartDistance":2.5,
         "stepByMinDistance":0.7,
-        "stepByMaxDistance":4
+        "stepByMaxDistance":3
     },
     "baseAttack":{
-        "attackDistance":4,
+        "attackDistance":3,
+        "probability":0.8,
+        "intervalTime":0.5
+    },
+    "remoteAttack":{
+        "attackDistance":10,
         "probability":0.3,
-        "intervalTime":1
-    },
+        "intervalTime":0.5
+    },
+    "impactWave":{
+    },
+    "attackHardBody":{
+    },
+    "counterAttack":{
+        "rigidityTime":3.5
+    },
+    "blackHole":{
+        "intervalTime":26
+    },
+    "teleportBack":{
+        "intervalTime":8,
+        "minDistance":8,
+        "attackProbabilityAdd":0.5
+    }
 }</t>
   </si>
   <si>
+    <t>{
+    "1":{
+        "itemId":2,
+        "countMin":999,
+        "countMax":999,
+        "probability":1
+    },
+    "2":{
+        "itemId":2,
+        "countMin":2500,
+        "countMax":2500,
+        "probability":1
+    },
+    "3":{
+        "itemId":2,
+        "countMin":2500,
+        "countMax":2500,
+        "probability":1
+    },
+    "4":{
+        "itemId":2,
+        "countMin":9999,
+        "countMax":9999,
+        "probability":1
+    },
+    "5":{
+        "itemId":2,
+        "countMin":999,
+        "countMax":999,
+        "probability":1
+    },
+    "6":{
+        "itemId":2,
+        "countMin":1500,
+        "countMax":1500,
+        "probability":1
+    }
+}</t>
+  </si>
+  <si>
+    <t>-0.06:-0.13:1.56:3.4</t>
+  </si>
+  <si>
+    <t>0:-1.14:3.13:1.36</t>
+  </si>
+  <si>
+    <t>{
+    "shadow":{
+        "_Shadow_Alpha":0.8,
+        "_Shadow_OffsetX":-0.21,
+        "_Shadow_OffsetY":-0.57,
+        "_Shadow_Slope":-0.8,
+        "_Shadow_ScaleY":0.6
+    }
+}</t>
+  </si>
+  <si>
     <t>102</t>
   </si>
   <si>
     <t>修理机工（木桩型）</t>
   </si>
   <si>
+    <t>trashFish</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
     <t>103</t>
-  </si>
-  <si>
-    <t>修理机工（极限型）</t>
   </si>
   <si>
     <t>elite</t>
@@ -773,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +873,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1109,10 +1204,14 @@
     <col min="7" max="7" width="19.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
     <col min="9" max="9" width="16.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="38.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="33.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="38.5555555555556" customWidth="1"/>
+    <col min="12" max="12" width="16.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,8 +1242,20 @@
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1175,98 +1286,146 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="98" customHeight="1" spans="1:10">
+    <row r="3" ht="98" customHeight="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="97" customHeight="1" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="97" customHeight="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="90" customHeight="1" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" ht="90" customHeight="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1">
         <v>99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
